--- a/src/main/resources/import.xlsx
+++ b/src/main/resources/import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_Learn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_Learn\accWH\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FCE5A2C-C5AD-444E-8B18-B0BABFCA1333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259BA354-424E-4812-9A4B-085E5ACFF10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{974F8073-6E5F-47CA-9F68-3DDB3F9577BE}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>BYAZ3501190301</t>
   </si>
   <si>
-    <t>Е.Л Семашко</t>
-  </si>
-  <si>
     <t>BYAZ3501190302</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Е.Л.Семашко</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D9417D-CBEC-40AB-AF33-0E948EEE06C4}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1">
         <v>45184</v>
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1">
         <v>45181</v>
@@ -707,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1">
         <v>45183</v>
@@ -730,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
         <v>45183</v>
@@ -753,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>45183</v>
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1">
         <v>45183</v>
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>45183</v>
@@ -822,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1">
         <v>45184</v>
@@ -845,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1">
         <v>45184</v>
@@ -868,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1">
         <v>45191</v>
@@ -891,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>45195</v>
@@ -914,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1">
         <v>45195</v>
@@ -937,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1">
         <v>45196</v>
@@ -960,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1">
         <v>45196</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1">
         <v>45196</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1">
         <v>45196</v>
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1">
         <v>45196</v>
@@ -1052,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1">
         <v>45197</v>
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1">
         <v>45198</v>
@@ -1098,7 +1098,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1">
         <v>45180</v>
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1">
         <v>45180</v>
@@ -1144,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1">
         <v>45180</v>
@@ -1167,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1">
         <v>45180</v>
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1">
         <v>45180</v>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1">
         <v>45180</v>
@@ -1236,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1">
         <v>45180</v>
@@ -1259,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1">
         <v>45180</v>
@@ -1282,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1">
         <v>45180</v>
@@ -1305,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1">
         <v>45180</v>
@@ -1328,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
         <v>45180</v>
@@ -1351,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1">
         <v>45181</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1">
         <v>45183</v>
@@ -1397,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1">
         <v>45184</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1">
         <v>45184</v>
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1">
         <v>45191</v>
@@ -1466,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1">
         <v>45194</v>
@@ -1489,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1">
         <v>45194</v>
@@ -1512,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1">
         <v>45194</v>
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1">
         <v>45194</v>
@@ -1558,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1">
         <v>45194</v>
@@ -1581,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1">
         <v>45187</v>
@@ -1604,7 +1604,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1">
         <v>45187</v>
@@ -1627,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1">
         <v>45187</v>
@@ -1650,7 +1650,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1">
         <v>45187</v>
@@ -1673,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1">
         <v>45187</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1">
         <v>45187</v>
@@ -1719,7 +1719,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="1">
         <v>45189</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1">
         <v>45189</v>
@@ -1765,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1">
         <v>45197</v>
@@ -1777,7 +1777,7 @@
         <v>4691715</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
         <v>59</v>
@@ -1788,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1">
         <v>45197</v>
@@ -1800,10 +1800,10 @@
         <v>4691716</v>
       </c>
       <c r="F51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s">
         <v>60</v>
-      </c>
-      <c r="G51" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1">
         <v>45198</v>
@@ -1823,10 +1823,10 @@
         <v>4691723</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1">
         <v>45173</v>
@@ -1846,10 +1846,10 @@
         <v>295155</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="1">
         <v>45180</v>
@@ -1869,10 +1869,10 @@
         <v>295167</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1">
         <v>45189</v>
@@ -1892,10 +1892,10 @@
         <v>4691594</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="1">
         <v>45170</v>
@@ -1915,10 +1915,10 @@
         <v>295154</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1">
         <v>45175</v>
@@ -1938,10 +1938,10 @@
         <v>295157</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1">
         <v>45190</v>
@@ -1961,10 +1961,10 @@
         <v>4691640</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1">
         <v>45190</v>
@@ -1984,10 +1984,10 @@
         <v>4691691</v>
       </c>
       <c r="F59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" t="s">
         <v>69</v>
-      </c>
-      <c r="G59" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="1">
         <v>45194</v>
@@ -2007,10 +2007,10 @@
         <v>4691692</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="1">
         <v>45198</v>
@@ -2030,10 +2030,10 @@
         <v>4691694</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,22 +2041,20 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="1">
         <v>45198</v>
       </c>
-      <c r="D62" s="1">
-        <v>45198</v>
-      </c>
+      <c r="D62" s="1"/>
       <c r="E62">
         <v>4691695</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,22 +2062,20 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1">
         <v>45173</v>
       </c>
-      <c r="D63" s="1">
-        <v>45173</v>
-      </c>
+      <c r="D63" s="1"/>
       <c r="E63">
         <v>274169</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,22 +2083,20 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="1">
         <v>45182</v>
       </c>
-      <c r="D64" s="1">
-        <v>45182</v>
-      </c>
+      <c r="D64" s="1"/>
       <c r="E64">
         <v>295341</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,22 +2104,20 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1">
         <v>45175</v>
       </c>
-      <c r="D65" s="1">
-        <v>45175</v>
-      </c>
+      <c r="D65" s="1"/>
       <c r="E65">
         <v>4594248</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
